--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/17_Bingöl_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/17_Bingöl_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32471636-BF14-4542-91C9-01C549CFF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D88863A-1195-4863-B3C1-9C2A50025881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2615959-140C-481E-8AA0-AA9C71CEA2A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F23CDEE6-BDF9-4FC7-8DF8-90E21CCE194E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{0F34E659-7593-4742-B2F9-4BB4D965E4C7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A1F72283-9E81-4345-9032-7E93535ADF7B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0AE98AED-8A02-4618-A7E3-3F40CC231E2D}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{51582AAA-B955-43B9-859F-43FD835D4460}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{21CB114C-06C2-4DE0-A021-F5B16184094A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{78951F06-13D2-42DC-A259-476AF633B34F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{AC57F49F-8DD4-422D-84A1-BA4AF19C7DCC}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{CD959552-31E3-48D0-8647-A58AEC333D3F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFC8739-765F-47E5-8FB0-5AA782FF2FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9CC17F-2B43-442D-8824-1613401620E1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2421,18 +2421,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0380D96D-8823-4875-8CF0-989E79FFD50B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{31BAAC80-C413-4BAE-876D-F42A067ECAEB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{071CE6B9-063E-4705-9BC4-C900DC332316}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3AC3C928-AB1E-41DC-8688-280BF4F0348A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{809F83AC-017A-48D7-8486-9A3077307C9D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E05391A-413A-4816-81FF-84D367998635}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B3CA4704-76FF-4046-BA57-A6F71F464AC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{28876210-2F83-4E72-95E5-075F34DDE8D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8F52A1A7-44FD-4BC6-B8D1-D319CA371D84}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{43595682-B2CE-4B63-B6E0-8CB569835B1D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{575C70E1-425E-4868-8084-6F5B2E3D7D7D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{62699565-3E38-4937-AFBE-503743748BCA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AD9A7976-2CC7-412E-A8C0-D4A0A96680E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{24090C42-3C85-4348-819C-B4BF28577E16}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D03441C0-ED64-4FFD-9E84-6A1B027A6F1E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CA1162B8-89E4-435A-BD2F-B4E85D0D866B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3DA37830-85C3-407A-B036-32EEACDEE01C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{425C36D0-7E1E-4A54-AACC-3752953ACABB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5C692E71-8A52-4847-B73E-3970E087CB38}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{274729AA-BA24-4E88-B485-6939CAEA2847}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0D547B0C-68D7-4F70-BDD4-A2F38DD14270}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AB6E7824-3619-47AB-A773-A1686C81C299}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A4FF8A70-5D5F-4B55-B822-6A523A6D1D4A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{26660B07-9579-454C-B578-48E829445405}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2445,7 +2445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F025A9-0868-4739-BDDC-7CA5525EB775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456E443E-09A7-4D11-B88A-6F6E72AA3A53}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3592,18 +3592,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E126362D-B2E5-42CD-AE8F-7356F063F319}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6854CD5F-D47B-43F2-8320-2773E99B76D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A1F395C8-6397-4100-84A3-62705D851392}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3A0B6384-3C4E-4808-BAC7-EBD2C15BF9B6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8B81B41A-99C3-4ADD-B60C-005F0A932BAF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{239FE569-68FD-4D9B-BC01-C0ED123E8363}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{82DAEC04-883B-41BB-A775-DB1CA6F8C71F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1E308607-11A8-481B-9A13-DF2A5E73FB01}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C7EC7598-DF8D-49EE-A086-F351E8D0CC05}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1E0A2F9-8129-4FA1-9A22-0F385DB66F3B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D15AEA7D-EFC0-4014-8FC1-44A75936EE7E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DD267E58-FC98-4790-90B5-6121AF9487F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A8375CC1-4ED3-49D0-A6F5-00FE7D972738}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F9CDF518-5F3E-45C8-A5E4-3D8AF3E6C8A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8FF1CF4D-1F45-43C0-88FA-B913C8A196C2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0BDE6243-0456-4B00-9B49-A5BB0399A024}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{959C5E00-8AFB-4E0F-811D-2C235E87BDE9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{454757BC-DF0D-4870-87C2-92571CE62313}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D22B4C2-1CE1-48D4-9E84-C1B8045AFAAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8ACFADC5-E1E7-42E9-AFCE-220AE48137CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{450B582B-3BBC-4DD5-B430-8E1D017506DA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{845AABFA-1BB6-4A42-909F-31EC4F479277}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D696680-D867-4A77-854B-7A98911A3E32}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{10CEAA05-E790-4BB5-AB0B-A82694B97315}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3616,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED225D33-7F93-411C-A883-EFFD7E1C548B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF756B57-E871-4A91-B094-A567D3A45C5B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4755,18 +4755,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B1FA7484-0457-4D95-A453-2493A0D6AF90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C036E0DA-487D-4A1D-8A65-EA8037B4B2D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{58915E74-48A2-477D-82E9-4C04C4418E0B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FEC22544-6526-4365-860D-85FC8E9B674F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B75B0DE2-564C-42A4-A111-2B0A168BF793}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F5BE0784-2EB2-44A1-A727-6104160A6034}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4538F6B9-7FF9-4081-BC84-608A5064BC2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{81C4D641-ADB6-41E2-AB39-383108592B98}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0CBF3A9D-06BC-4913-8F15-75018D271D00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F1B24112-9D32-4DCA-8451-53050690D6E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{30FF021B-A0F2-4F69-B30C-67E2BA3C5136}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE1CECDC-B8F8-43F5-B8CE-2DCF08232B77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A97D98E-2057-471F-BCB8-D34A12FB4B0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF84C5FF-F319-4435-A7FA-C1324542B31A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A3891CB2-EF6F-4063-BF0D-C2316D785736}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A2CFD564-0E29-4AAB-9EFD-125970F0C4FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DFE7F373-6575-40A0-83C1-1ADFD7294F12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D2757306-950A-4ADD-9EA5-3F3E305DAD0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{15FAD625-C585-454D-8A56-066EA76F2C7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{822C4CEC-0947-4848-A7B3-A5197096C86F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DC153668-3EC8-4D17-AC4B-21AFB6FA8BC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{76E092AE-7C14-4FA7-B4D9-074F616E2568}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EEED3C59-D4B4-4D03-9C5B-E771437B95A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3879D89D-DD06-4162-B2F2-F37D85EBA50F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4779,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC8FBFA-EE3C-4680-BDCD-B7D5F3606A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D21B8E-1B93-4F62-B982-F920026BA8CD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5908,18 +5908,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CA29BA9D-D15E-467D-B476-471C8151652B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{79F42EB3-DF5A-4809-AE9B-0342445A256C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7C321759-2D25-4612-83B3-D667F7DC7A87}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0D1A3A14-5510-402A-921E-88141DC0D829}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{688B53D0-0CC0-44FC-A775-A7F8C2E133A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AE83EC19-4F92-4DFA-92A8-A7266E3909C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C12FB39F-07BE-4FB1-8CC0-A882BCF7A5E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AFEB1DBF-A337-4CB2-9C2E-D758841EFDD4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4671B994-8D39-4142-9B17-41C008A46D69}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{93AD4F88-0E62-426F-9D6F-A03119021BF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{862AF707-DB5E-4DAE-917C-98099B307A0F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CD3567E9-DAF7-432D-9167-7640926E70D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{034F42B9-0DA0-4A92-8200-54DC2C36E478}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{666923F3-7132-4FA5-81DD-9F12D2B9DB30}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{72441F09-31E1-4EF2-9F81-C0E8AD803992}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7E2181D3-BE58-440D-A623-B3B3E7163A2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A6B3C654-7AA8-4CA1-9E2A-6E273BDB591D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{36329613-6459-45A3-902E-991568C288CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DC964A35-9158-4422-9E89-1621529CEF95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FFD2E78C-1E0D-4CA3-92A7-FA29253974CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{24B9BBDA-4416-4D20-B241-4166DBACAEE4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{23A3E38B-FCB7-4990-9A10-FD1973C84113}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{623D8D02-CEB7-42B1-BD8F-5F4F9E1BF041}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{12887145-8AF8-417E-806B-49C70B019C1F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5932,7 +5932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12026BE5-CB23-4C15-B664-4364012DE81A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4E6DBF-5FB2-4C25-811D-CCFA6C1DA2E1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7119,18 +7119,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6B05DE46-3571-414E-94F1-0B23083B2F3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0B344193-3373-4766-B22E-7A2C961EBC87}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A59E696F-E36B-4D53-95C8-C8CD24C3921D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FDA779DC-DBA2-40E8-91A9-EE1D81E39FF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{33D10AD3-D122-4130-9122-BFBCF54B14B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{572C229A-BAFE-4489-8337-FCD52C58211C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6656DBC0-69A7-476A-B56A-B36D0F9F1FB1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{42D9F44A-79CD-47EE-BB61-83F930EBABB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DC2C9A29-BD7B-4E4D-8E93-4EBEE48BDA84}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{42F3B396-F249-4015-863B-0A02C3177FC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FAC9DBBB-1D69-493B-8C31-DC811E03443A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AF30E477-E548-4118-8E99-47E1488D0352}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{97B3D026-6118-4DE4-8A00-F7D823F1FB17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A505A54F-FC30-4C38-BAD7-8B88A2BD1A0F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4C13EE76-8FF6-4832-83E6-7D36E6752E75}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{373082F3-BD32-48FF-B503-201CE5518BCD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B93A417B-B80A-4B0C-8697-BB835C464B3A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{08C32213-85CD-4223-8386-83DCD853599F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4C38FCA2-2F89-4FDE-B92C-BFC27E2439FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EE075EF1-E957-40D8-A822-1951F40F2022}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ED224244-AB25-4011-8960-D42980F35B23}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DEACF9CA-1DD5-461F-894B-6F969CF8E3BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F215D075-2EEB-4956-A93A-F06427A174E4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{53DE61C7-5D2E-413B-A423-3A20769F4500}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7143,7 +7143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77362CA2-4BF9-493D-852E-FC3A89982F9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8D8828-F0E0-468D-9120-27852572CE69}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8332,18 +8332,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5FECA541-F626-4614-8690-19F0B792A4EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5B7D0990-C182-40A8-9F15-5340C05D47C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D94E01C3-30AA-4B2A-91C3-3649879BEB1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7379C437-BE5E-4340-9E9D-97555CD85B23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{67120E42-93DF-424F-B753-EE6DAF2B9BE5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8C89D062-FBF7-40FD-87AB-6FDD8F490381}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5A7C6430-CF3C-42A1-A316-8156478B86D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{966479E6-2C89-443F-9242-175CFB40A899}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{856D74FC-2726-4683-B2F1-B61EE2FFE33B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E82553D0-AE8F-4467-9046-E0F73394AF7D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9224DAE2-EA2F-4AC6-AD42-242D0545D2F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{75DE2DD0-6426-4988-AFD7-6EB49339AE9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DDAB7C38-1959-4AD1-9164-3EBC408A2A7B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AE4DDD41-4594-4AA3-9582-57C0D95241AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CDCCF738-7E03-4395-851B-BFCF292C0E18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3AF1C1DF-D8CA-4BFF-9E78-9CE73B6F685F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D1C5918D-F67F-4954-B1EC-A20AFF67CCA2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B65CE091-8AE6-4C25-AA0B-CBCE6E963AEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EE284B87-2E81-4DDA-AF12-D94E0E738092}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{17DEED5E-EC3A-43E3-B8A9-3C2FE32ECEB6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9CBF7D50-EEB4-4331-8776-8BD2A36043DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2EF652C8-0FEF-428B-8CA8-34F1EB877588}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8DA11C9E-19EF-4214-A39A-CCD38268948C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1E333704-BD89-4441-8450-FA89E0AD8ACE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8356,7 +8356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8E093C-8BE3-4546-AF97-45C8EE209EDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C0676D-3A96-49C1-9802-77BA98294A37}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9543,18 +9543,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C574FF98-9947-4547-8238-FB528747DE7F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0E7566E8-86F8-4B4D-951D-BB81C1BEAB7D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{89929442-66D1-45BB-922E-D609BC95E312}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{04B73FFF-3DDB-4F59-A0E3-9FF50386CE59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AEAA3731-34EF-46FD-98F8-A2B3B4AA2A87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{203B6A36-48ED-4C8A-B3CC-3400767EDD7B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9BE7E422-AE3D-415E-B9BE-19CD18511B69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3B528B63-148D-40A7-BABE-EA9C148C58E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{049CE6AA-BFC2-4EE3-91B4-074604EF0EE6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F25769A7-C9F4-44A8-8AF8-79A14264921F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{76A833C9-AB60-4E66-8CDA-83739EDD4739}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0F9B26EA-541D-4CE0-B9C5-60414ECC6188}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2C2B6652-C1CD-4D94-9E67-A3B465FEB458}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7E79D986-7661-4F59-874C-2245150948CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8B955311-647A-455C-BD62-080C8DD07149}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CDF067EB-1C23-44CA-99D4-069F8B5331AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{686A7F8D-5107-4986-9CB1-CBF3115F3CE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{15277727-7DED-4719-AA99-F32B6A9B879D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E31BD143-6A6C-47D0-9280-74E7CC83BD66}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B0F3020D-D981-4BFE-9733-1B8B0CD5862B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{347BE278-AEE9-4113-B28F-1EFDE31CBA05}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7C4B15A4-40F8-44F1-99BC-4CF5E461578A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{19C49FF4-683B-4D73-9007-6565D7D26DCE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7C471882-B46A-4F34-A715-BFA7D8029EB4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9567,7 +9567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8387C399-1CB7-4A7E-ACCD-A1581BD11900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D76EAB-B46C-4329-85DD-65BBA2369B86}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10746,18 +10746,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4CD62A9B-1957-4ABB-80E8-281DBEFDD85C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0CAD6ED9-1463-44B9-80CE-38011EAEED07}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CDDB5ACF-5265-4D35-96D8-F2CE5B10E188}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1DA0975E-8F7B-4CF2-BAFE-5E158EEE6639}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A1793A02-871D-4416-9A71-3BAA55F1AB21}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7DBD88C1-7E86-4D31-BABF-FCE9BC41F39F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{23F6DE18-9DB7-4075-9935-8173616B3C02}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{22803063-C376-405E-922F-09D82747C04C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F283BB5E-39C5-4D47-A3C9-25C16BB8E541}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{33F9738A-86C0-42EF-8E63-BCE853423B64}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{944EA8F8-ADD0-459F-92ED-3F4B8773B4F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65E529A3-5BB3-44BC-9275-20DF804E30E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90074C58-3E49-4633-9E42-FA9B193DF38B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B6BBC6BB-489C-4EE4-8057-52DE8D7D6871}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E84DBDA2-7B8F-4FC9-8602-5B954A1D16BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{794B1A0E-E3D1-45E6-97C8-AEF549ABB347}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{293E8EF0-4EEA-4359-96FD-6AE6781E550B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C24A3443-931F-4054-BCF6-CC73C0BF55E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F2D0FF1-2573-459C-8872-3E020B1D4ACC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED57CE19-4FD9-4AA4-B42A-535AA36331A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CE04A24F-9F3E-480D-85B3-D7A215F7F8DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{523D230B-C56B-4F92-8607-0748A8B4F85B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FB0E6B26-ADC4-4BAD-8E02-D38458817B8A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C8D0A4A7-BB78-4E74-990E-736620DE1AB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10770,7 +10770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4962436-2FB2-4676-931A-7DB92AE572D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2CBF7B-2889-414D-A6FB-44095B8FBBD4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11945,18 +11945,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{959CF736-81BC-4C19-A1AB-ED5618F44515}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CAF28815-9F9F-4799-82B7-01EF41400849}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{54B508B0-05CD-471E-A719-A6B4179E9164}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6220E46C-FDFC-4C01-AA75-780DC71F793C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E956EDB7-330B-4290-9E41-30EA0B49E0C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{47F1F37B-C7CB-4A47-BE7E-D36F231BBEBC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D478D686-3722-40FE-A793-7DF899596BF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BBDD48A4-ABF3-4EF0-9CCB-D38C172EBFE3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{691E5F74-E411-4D1A-A33F-FE1BAEAA859B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A37C158-182D-4681-B04F-D02DFC271DF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1785ED7E-CEB1-4161-B50E-C6446A00FB32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{88A1C32A-03B4-4636-945E-CA80FEF2A725}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{671ABABA-0922-4DBD-8034-E1AABBB6C75B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D7B603BA-4B38-489A-BCE3-51077B2AA183}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A77DEDE4-D355-48CC-8CD5-938C204D940B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{26441323-C82C-488B-ABDE-ED79F51B2F2C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{74B1DD6F-A952-4E50-A91D-C3FF47D9BD07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{02C78626-63FB-4417-B30E-9AF92AA9A6B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9EE18D2F-0826-4832-97CC-C0A5D13BBFD8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F1A0596-935F-45A3-AF6F-C2B3582F9C30}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E09C3C44-4A72-4D8C-8696-598401B0E127}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{96A3F33A-C52B-45D1-8BD8-3E7564491FD3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{481C4FD2-9BAD-4D86-A30D-7CA760C32260}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{966C72A0-DB40-4F1C-AFED-6EA322FE5D5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11969,7 +11969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA8BCA0-908F-4172-966C-96FB01B5351C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A08A7E-93D9-4127-8AFC-125DC8A89B23}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13144,18 +13144,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{270DC3C6-AB1A-4A2F-B562-68E8EF8E33CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{17492E84-13F0-46BF-8B1B-5FE065A09FEC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AA9E0EF8-2E63-4482-89E9-3B0E22B9ED33}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CECD6679-065D-46E9-891B-CFE33842E94F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{172DE0A1-B6AB-4B7F-8E36-ECAFF4E4198A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{82F0A5D7-3A0E-4486-8ED6-6A1E0A89BA99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B8B973DE-1447-455E-B983-68B81EF87085}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9DBE6369-40B8-49CE-A78D-D706B873E176}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D0E7A9F8-55F2-4E74-BC04-3871342C057F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4B4D522E-108D-4A95-83BE-822B29274992}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4B16A3A5-3D12-4AD7-9FDC-FCFBF5FA8C93}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{399E7E8D-13A5-48CD-986B-AB7FDC828165}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9CC7AFC-DF9A-4606-8AA1-7BA63DD9143E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{36CF4EBB-0F6E-470C-9B9A-973D9392465D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5E487FF-E5E0-4BD4-B4A6-C80BB2FEDFE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CC4CCA42-C4DD-4DBB-A4F6-62D864E20D17}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA3BE2D5-E968-4592-A0E8-8893EBBB84A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D989EF75-99EE-4818-A455-C72FAEE53CEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C924B335-6799-417D-9D1E-637FB8E6D760}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1236F9C0-3F6D-4EA1-B32F-DC3E978E14D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9899A6C5-7E4D-4028-A15F-351FCB20FB1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{33A022B9-209F-40F9-830D-5346FBB1330B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E3AFAC7F-601A-4473-9BBE-5D4AD7A4900E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{43D736A9-C8AA-4D7B-9774-D0FEA0F5574B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13168,7 +13168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805B21E-C7A0-4181-92E8-B58483AD0F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B492BCA-F4D7-4877-954B-48F802073DB6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14331,18 +14331,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ADF0CFCB-11EE-433F-BCA0-EDB731FA0441}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF3E00E9-DA15-4B6B-A17A-BE78E32C9B6D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA6B5677-8F14-46B5-8576-9343AA1C794A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{898AC594-05A0-4921-BFB3-BB5786AF71CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5D4F9033-185F-4072-883B-55E940A04373}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B4088956-D672-4461-8817-95B881FE37FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{11BC58D1-4A00-40EF-A3E0-37DAB7444757}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1BB045B9-7DC8-412C-9E09-AF51EBCBC83F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1CF5D17C-EAC7-4B77-9B95-10C08B933D92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6FCD5FC5-4566-4CAD-B5B4-74A3EBD3DA8C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A24B7E3B-3FFA-4558-95C0-BA6EF09B6D22}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{76E39129-01B6-44F0-A98B-F59834CD77A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E77BA392-AC28-4EA7-A758-0ECA539CF084}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FD6BCA3E-D68B-4F88-BDB9-77200D77C8F5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{960C4CF1-6D30-47F9-9DCC-BD2FA53BF15F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{68210533-5D7E-476B-8BF9-2FAF31700C24}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{912B05F6-133F-432A-B390-EF6826D2E3A1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EEA33A04-3A9B-4782-BBD0-3EEDAC9FFDC5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{017F408A-01D4-4C78-892A-9DAF03627403}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FDB41EE7-533E-47FD-A832-F9188306FAFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E7B31B69-FF71-4427-9AC1-F94129D3C0E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0A49FE11-F24C-469D-8D49-12932081B4D7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CD1E5A47-337C-44C4-8FD1-B0C0FFE4E15C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB143441-9FF0-4DB7-8342-627A780DDFFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14355,7 +14355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66A3225-0913-4E45-B3C3-5E1EBE19862C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE80CE7-851D-4F10-BCD1-045B0C471492}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15514,18 +15514,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8F4C143D-D124-4FE0-8CD8-BE40CFAD66BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EEFF3B01-6EB8-4280-9972-F54C4A2FCD53}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A8BB0DE4-0501-42BB-91E4-6252CB02F016}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1F03DA22-774C-4309-856B-61E7484F4127}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4FCA4EA1-C4EA-4B6A-9307-6F84CF4E2C94}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F110D574-1AEC-4764-BF76-0177962508B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8F49C12E-9ED1-4C7A-B276-EE323DE87D0B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8DC45602-11F7-4778-B3BD-F159294C0355}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D9DF519D-1BCC-4D64-8671-1C1C5CEFE4BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8D54ACF4-6E56-47B7-9FEF-D185F0D78CDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BF201F09-C0BD-40D3-83C0-E38A5DC056B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{14FE05A9-6981-4DF6-8A4E-BA4AFD3A3BCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2A0F24F0-FE42-49CA-A08E-4346CF805D64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1ED0072B-A821-4115-A017-14A815B0486D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{35156083-4134-4358-9615-D06D6B025E3F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0130FB2B-B096-49FE-8C99-B3995DCDD229}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1C3D11FA-5AF3-443A-9769-1A3A4927D418}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B1955F0-BE5E-49BF-8F76-C0AAB76EF2A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{908D394A-7E42-4A80-A278-5C9044C17ECA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{93D794A1-4AB8-4894-842F-FB22DC91C82A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{277307AC-9B00-44DB-BCD9-0F0E4655E527}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{28AAE608-74AC-4C1C-94FE-56B9C80A48E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C1302792-9F43-43F5-80A6-A1DFA3B8E44C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{21E28A13-1C10-4091-AAE4-F68AE71D6442}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
